--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_3_18.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_3_18.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>219837.8034204152</v>
+        <v>263699.3006927027</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17254715.44216108</v>
+        <v>16597726.15245798</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492028.9342484432</v>
+        <v>492028.9342484447</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8259982.466909854</v>
+        <v>8278921.862215237</v>
       </c>
     </row>
     <row r="11">
@@ -659,25 +659,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
-        <v>33.79429511437168</v>
+        <v>180.7109018001519</v>
       </c>
       <c r="D2" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E2" t="n">
         <v>29.43699739328775</v>
       </c>
       <c r="F2" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,10 +710,10 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>14.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="3">
@@ -823,16 +823,16 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>137.8413084154446</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,22 +862,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>172.0647531850085</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
         <v>242.9378371199217</v>
@@ -896,22 +896,22 @@
         <v>22.03657478005869</v>
       </c>
       <c r="C5" t="n">
-        <v>45.77764296561946</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
-        <v>424.2958575201043</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>424.2958575201043</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0.4126214791313976</v>
@@ -956,13 +956,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0.8069000430770075</v>
+        <v>33.16817547790426</v>
       </c>
       <c r="X5" t="n">
         <v>14.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="6">
@@ -1063,16 +1063,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>116.2712455521792</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1108,19 +1108,19 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>243.8398845373353</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>45.50790004565502</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
         <v>433.7610480884109</v>
@@ -1148,10 +1148,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1190,7 +1190,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>143.5062754865797</v>
       </c>
       <c r="W8" t="n">
         <v>0.8069000430770075</v>
@@ -1291,22 +1291,22 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
         <v>87.77334973307141</v>
@@ -1357,7 +1357,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
-        <v>201.7813880281817</v>
+        <v>27.9735834668218</v>
       </c>
     </row>
     <row r="11">
@@ -1388,7 +1388,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800136</v>
+        <v>71.43430199953281</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>358.9907805655117</v>
@@ -1433,7 +1433,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
-        <v>365.2190823866864</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
         <v>404.2032624633431</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>189.9004325317972</v>
+        <v>50.30825486907117</v>
       </c>
       <c r="C13" t="n">
         <v>170.8360944016073</v>
@@ -1543,10 +1543,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U13" t="n">
-        <v>131.9969996527468</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V13" t="n">
         <v>284.0859530482738</v>
@@ -1607,7 +1607,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>433.7610480884109</v>
+        <v>165.7499153537896</v>
       </c>
       <c r="D14" t="n">
         <v>431.5506869772999</v>
@@ -1625,7 +1625,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1673,7 +1673,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
-        <v>136.6047512078547</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="15">
@@ -1774,16 +1774,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>90.30617524481323</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>18.05677735225723</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>422.0365747800587</v>
+        <v>154.0254420454375</v>
       </c>
       <c r="C17" t="n">
         <v>433.7610480884109</v>
@@ -1862,7 +1862,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T17" t="n">
-        <v>33.0833986782043</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U17" t="n">
         <v>256.6300796561533</v>
@@ -2017,10 +2017,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,16 +2047,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225706</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U19" t="n">
-        <v>131.9969996527464</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V19" t="n">
         <v>284.0859530482738</v>
@@ -2081,7 +2081,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
-        <v>165.749915353791</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D20" t="n">
         <v>431.5506869772999</v>
@@ -2141,7 +2141,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W20" t="n">
-        <v>400.806900043077</v>
+        <v>132.7957673084553</v>
       </c>
       <c r="X20" t="n">
         <v>414.9510387864824</v>
@@ -2254,7 +2254,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>103.8284742946035</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2287,10 +2287,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>18.0567773522574</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>275.6486707394257</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>189.9004325317972</v>
+        <v>69.45405731752552</v>
       </c>
       <c r="C25" t="n">
         <v>170.8360944016073</v>
@@ -2491,7 +2491,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>18.05677735225796</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2728,7 +2728,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
         <v>87.77334973307141</v>
@@ -2761,7 +2761,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2770,13 +2770,13 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V28" t="n">
-        <v>214.3693806674601</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X28" t="n">
-        <v>242.9378371199217</v>
+        <v>161.1551102058694</v>
       </c>
       <c r="Y28" t="n">
         <v>225.1454739790328</v>
@@ -2965,7 +2965,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>85.55329631630698</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3010,13 +3010,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W31" t="n">
-        <v>269.3061403695714</v>
+        <v>129.7139627068458</v>
       </c>
       <c r="X31" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="32">
@@ -3235,7 +3235,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225796</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3253,7 +3253,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y34" t="n">
-        <v>85.55329631630735</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="35">
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>422.0365747800587</v>
+        <v>422.0365747800578</v>
       </c>
       <c r="C35" t="n">
         <v>433.7610480884109</v>
@@ -3472,7 +3472,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>18.05677735225785</v>
+        <v>18.0567773522574</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>422.0365747800587</v>
+        <v>422.0365747800578</v>
       </c>
       <c r="C38" t="n">
         <v>433.7610480884109</v>
@@ -3563,7 +3563,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
-        <v>400.8069000430779</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
         <v>414.9510387864824</v>
@@ -3676,7 +3676,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>18.05677735225715</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3709,10 +3709,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>103.8284742946034</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U40" t="n">
         <v>275.6486707394257</v>
@@ -3946,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>18.05677735225796</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
         <v>243.4206519573293</v>
@@ -3958,7 +3958,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
-        <v>269.3061403695714</v>
+        <v>129.7139627068454</v>
       </c>
       <c r="X43" t="n">
         <v>242.9378371199217</v>
@@ -3992,7 +3992,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
-        <v>286.2388530112168</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
         <v>0.4126214791313976</v>
@@ -4150,7 +4150,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4183,13 +4183,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>18.05677735225785</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U46" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>284.0859530482738</v>
@@ -4201,7 +4201,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
-        <v>225.1454739790328</v>
+        <v>222.6988144892035</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>442.640221925911</v>
+        <v>1125.571893585293</v>
       </c>
       <c r="C2" t="n">
-        <v>408.5045702952325</v>
+        <v>943.0356291406954</v>
       </c>
       <c r="D2" t="n">
-        <v>376.6351895100811</v>
+        <v>507.1258443151398</v>
       </c>
       <c r="E2" t="n">
-        <v>346.9008487087803</v>
+        <v>477.391503513839</v>
       </c>
       <c r="F2" t="n">
-        <v>323.0738231583921</v>
+        <v>49.5240739230468</v>
       </c>
       <c r="G2" t="n">
-        <v>323.0738231583921</v>
+        <v>49.5240739230468</v>
       </c>
       <c r="H2" t="n">
-        <v>33.94366860160834</v>
+        <v>49.5240739230468</v>
       </c>
       <c r="I2" t="n">
-        <v>33.94366860160834</v>
+        <v>49.1072845501868</v>
       </c>
       <c r="J2" t="n">
-        <v>33.94366860160834</v>
+        <v>484.3619720031047</v>
       </c>
       <c r="K2" t="n">
-        <v>437.0247332457074</v>
+        <v>1092.064618311666</v>
       </c>
       <c r="L2" t="n">
-        <v>437.0247332457074</v>
+        <v>1092.064618311666</v>
       </c>
       <c r="M2" t="n">
-        <v>437.0247332457074</v>
+        <v>1092.064618311666</v>
       </c>
       <c r="N2" t="n">
-        <v>437.0247332457074</v>
+        <v>1092.064618311666</v>
       </c>
       <c r="O2" t="n">
-        <v>857.0776321906106</v>
+        <v>1132.008730489127</v>
       </c>
       <c r="P2" t="n">
-        <v>1277.130531135514</v>
+        <v>1739.711376797689</v>
       </c>
       <c r="Q2" t="n">
-        <v>1697.183430080417</v>
+        <v>2286.210162756283</v>
       </c>
       <c r="R2" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.36422750934</v>
       </c>
       <c r="S2" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.36422750934</v>
       </c>
       <c r="T2" t="n">
-        <v>1697.183430080417</v>
+        <v>2235.297000382379</v>
       </c>
       <c r="U2" t="n">
-        <v>1697.183430080417</v>
+        <v>1976.074697699396</v>
       </c>
       <c r="V2" t="n">
-        <v>1697.183430080417</v>
+        <v>1976.074697699396</v>
       </c>
       <c r="W2" t="n">
-        <v>1292.327975491451</v>
+        <v>1571.219243110429</v>
       </c>
       <c r="X2" t="n">
-        <v>1277.225916111165</v>
+        <v>1556.117183730144</v>
       </c>
       <c r="Y2" t="n">
-        <v>868.9397924108188</v>
+        <v>1551.871464070201</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>540.1154135929012</v>
+        <v>555.2790295414796</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295434</v>
+        <v>448.8225683781219</v>
       </c>
       <c r="D3" t="n">
-        <v>338.5686635760967</v>
+        <v>353.7322795246752</v>
       </c>
       <c r="E3" t="n">
-        <v>244.4482489030504</v>
+        <v>259.6118648516289</v>
       </c>
       <c r="F3" t="n">
-        <v>161.064410519212</v>
+        <v>176.2280264677905</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539587</v>
+        <v>90.84293673397434</v>
       </c>
       <c r="H3" t="n">
-        <v>33.94366860160834</v>
+        <v>49.1072845501868</v>
       </c>
       <c r="I3" t="n">
-        <v>60.00734176206595</v>
+        <v>75.1709577106444</v>
       </c>
       <c r="J3" t="n">
-        <v>384.5656667282782</v>
+        <v>399.7292826768567</v>
       </c>
       <c r="K3" t="n">
-        <v>804.6185656731816</v>
+        <v>1007.431928985418</v>
       </c>
       <c r="L3" t="n">
-        <v>1159.957753041174</v>
+        <v>1054.43532930258</v>
       </c>
       <c r="M3" t="n">
-        <v>1159.957753041174</v>
+        <v>1054.43532930258</v>
       </c>
       <c r="N3" t="n">
-        <v>1159.957753041174</v>
+        <v>1054.43532930258</v>
       </c>
       <c r="O3" t="n">
-        <v>1159.957753041174</v>
+        <v>1054.43532930258</v>
       </c>
       <c r="P3" t="n">
-        <v>1159.957753041174</v>
+        <v>1054.43532930258</v>
       </c>
       <c r="Q3" t="n">
-        <v>1580.010651986078</v>
+        <v>1595.174267934656</v>
       </c>
       <c r="R3" t="n">
-        <v>1697.183430080417</v>
+        <v>1712.347046028996</v>
       </c>
       <c r="S3" t="n">
-        <v>1633.7279925288</v>
+        <v>1648.891608477379</v>
       </c>
       <c r="T3" t="n">
-        <v>1503.549348859402</v>
+        <v>1518.71296480798</v>
       </c>
       <c r="U3" t="n">
-        <v>1327.21280185937</v>
+        <v>1342.376417807949</v>
       </c>
       <c r="V3" t="n">
-        <v>1128.09528392137</v>
+        <v>1143.258899869948</v>
       </c>
       <c r="W3" t="n">
-        <v>942.7725296545636</v>
+        <v>957.936145603142</v>
       </c>
       <c r="X3" t="n">
-        <v>787.9050938934436</v>
+        <v>803.068709842022</v>
       </c>
       <c r="Y3" t="n">
-        <v>661.4193146726643</v>
+        <v>676.5829306212428</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>858.7506050139928</v>
+        <v>526.7806337295247</v>
       </c>
       <c r="C4" t="n">
-        <v>686.1888934972177</v>
+        <v>354.2189222127496</v>
       </c>
       <c r="D4" t="n">
-        <v>520.3109006987404</v>
+        <v>188.3409294142723</v>
       </c>
       <c r="E4" t="n">
-        <v>350.5528969494776</v>
+        <v>49.1072845501868</v>
       </c>
       <c r="F4" t="n">
-        <v>173.8458429112338</v>
+        <v>49.1072845501868</v>
       </c>
       <c r="G4" t="n">
-        <v>173.8458429112338</v>
+        <v>49.1072845501868</v>
       </c>
       <c r="H4" t="n">
-        <v>33.94366860160834</v>
+        <v>49.1072845501868</v>
       </c>
       <c r="I4" t="n">
-        <v>33.94366860160834</v>
+        <v>49.1072845501868</v>
       </c>
       <c r="J4" t="n">
-        <v>120.5233537662982</v>
+        <v>135.6869697148767</v>
       </c>
       <c r="K4" t="n">
-        <v>269.215608100497</v>
+        <v>410.4454242860123</v>
       </c>
       <c r="L4" t="n">
-        <v>269.215608100497</v>
+        <v>828.6553060539734</v>
       </c>
       <c r="M4" t="n">
-        <v>689.2685070454004</v>
+        <v>1288.139173234886</v>
       </c>
       <c r="N4" t="n">
-        <v>1109.321405990304</v>
+        <v>1730.397976392531</v>
       </c>
       <c r="O4" t="n">
-        <v>1528.990655216085</v>
+        <v>2150.067225618312</v>
       </c>
       <c r="P4" t="n">
-        <v>1528.990655216085</v>
+        <v>2455.36422750934</v>
       </c>
       <c r="Q4" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.36422750934</v>
       </c>
       <c r="R4" t="n">
-        <v>1697.183430080417</v>
+        <v>2433.946406214712</v>
       </c>
       <c r="S4" t="n">
-        <v>1697.183430080417</v>
+        <v>2274.705037512709</v>
       </c>
       <c r="T4" t="n">
-        <v>1697.183430080417</v>
+        <v>2028.825591091164</v>
       </c>
       <c r="U4" t="n">
-        <v>1697.183430080417</v>
+        <v>1750.392590344269</v>
       </c>
       <c r="V4" t="n">
-        <v>1697.183430080417</v>
+        <v>1463.4370822147</v>
       </c>
       <c r="W4" t="n">
-        <v>1523.380649085459</v>
+        <v>1191.410677800991</v>
       </c>
       <c r="X4" t="n">
-        <v>1277.988894418872</v>
+        <v>946.0189231344036</v>
       </c>
       <c r="Y4" t="n">
-        <v>1050.56922373298</v>
+        <v>718.5992524485118</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1654.761434047123</v>
+        <v>2190.910269352854</v>
       </c>
       <c r="C5" t="n">
-        <v>1608.521390647508</v>
+        <v>1752.767796536277</v>
       </c>
       <c r="D5" t="n">
-        <v>1179.939716384776</v>
+        <v>1316.858011710722</v>
       </c>
       <c r="E5" t="n">
-        <v>751.3580421220443</v>
+        <v>883.0832668690169</v>
       </c>
       <c r="F5" t="n">
-        <v>323.4906125312521</v>
+        <v>455.2158372782247</v>
       </c>
       <c r="G5" t="n">
-        <v>323.4906125312521</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H5" t="n">
-        <v>34.36045797446834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J5" t="n">
-        <v>453.9965675465116</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K5" t="n">
-        <v>687.9235674375537</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L5" t="n">
-        <v>687.9235674375537</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="M5" t="n">
-        <v>687.9235674375537</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N5" t="n">
-        <v>687.9235674375537</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O5" t="n">
-        <v>1107.976466382457</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.976466382457</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="W5" t="n">
-        <v>1696.368379531855</v>
+        <v>2636.557618877989</v>
       </c>
       <c r="X5" t="n">
-        <v>1681.26632015157</v>
+        <v>2621.455559497704</v>
       </c>
       <c r="Y5" t="n">
-        <v>1677.020600491627</v>
+        <v>2213.169435797357</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F6" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K6" t="n">
-        <v>804.6185656731816</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1024.341879988165</v>
+        <v>933.2958513705994</v>
       </c>
       <c r="C7" t="n">
-        <v>851.7801684713901</v>
+        <v>760.7341398538243</v>
       </c>
       <c r="D7" t="n">
-        <v>685.9021756729128</v>
+        <v>594.856147055347</v>
       </c>
       <c r="E7" t="n">
-        <v>516.14417192365</v>
+        <v>425.0981433060843</v>
       </c>
       <c r="F7" t="n">
-        <v>339.4371178854062</v>
+        <v>425.0981433060843</v>
       </c>
       <c r="G7" t="n">
-        <v>173.8458429112338</v>
+        <v>259.506868331912</v>
       </c>
       <c r="H7" t="n">
-        <v>33.94366860160834</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J7" t="n">
-        <v>33.94366860160834</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K7" t="n">
-        <v>33.94366860160834</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L7" t="n">
-        <v>437.4083829648294</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M7" t="n">
-        <v>857.4612819097326</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N7" t="n">
-        <v>1277.514180854636</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O7" t="n">
-        <v>1697.183430080417</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P7" t="n">
-        <v>1697.183430080417</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>1675.765608785789</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S7" t="n">
-        <v>1516.524240083786</v>
+        <v>2489.401636434796</v>
       </c>
       <c r="T7" t="n">
-        <v>1270.644793662241</v>
+        <v>2243.522190013251</v>
       </c>
       <c r="U7" t="n">
-        <v>1024.341879988165</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V7" t="n">
-        <v>1024.341879988165</v>
+        <v>1678.133681136787</v>
       </c>
       <c r="W7" t="n">
-        <v>1024.341879988165</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X7" t="n">
-        <v>1024.341879988165</v>
+        <v>1160.715522056491</v>
       </c>
       <c r="Y7" t="n">
-        <v>1024.341879988165</v>
+        <v>933.2958513705994</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1772.466367533142</v>
+        <v>2078.642592532902</v>
       </c>
       <c r="C8" t="n">
-        <v>1334.323894716565</v>
+        <v>1640.500119716325</v>
       </c>
       <c r="D8" t="n">
-        <v>898.4141098910095</v>
+        <v>1204.590334890769</v>
       </c>
       <c r="E8" t="n">
-        <v>464.6393650493047</v>
+        <v>770.8155900490646</v>
       </c>
       <c r="F8" t="n">
-        <v>36.77193545851248</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="G8" t="n">
-        <v>36.77193545851248</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H8" t="n">
-        <v>36.77193545851248</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I8" t="n">
-        <v>36.77193545851248</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>36.77193545851248</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>491.8246367576044</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="L8" t="n">
-        <v>491.8246367576044</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="M8" t="n">
-        <v>491.8246367576044</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="N8" t="n">
-        <v>491.8246367576044</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O8" t="n">
-        <v>759.3373055743834</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P8" t="n">
-        <v>1214.390006873475</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q8" t="n">
-        <v>1669.442708172567</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R8" t="n">
-        <v>1838.596772925624</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1838.596772925624</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T8" t="n">
-        <v>1838.596772925624</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U8" t="n">
-        <v>1838.596772925624</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V8" t="n">
-        <v>1838.596772925624</v>
+        <v>2525.1049926066</v>
       </c>
       <c r="W8" t="n">
-        <v>1837.781722377061</v>
+        <v>2524.289942058037</v>
       </c>
       <c r="X8" t="n">
-        <v>1822.679662996776</v>
+        <v>2509.187882677752</v>
       </c>
       <c r="Y8" t="n">
-        <v>1818.433943336834</v>
+        <v>2504.942163017809</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>542.9436804498052</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>436.4872192864476</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>341.3969304330008</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>247.2765157599545</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>163.8926773761161</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>78.50758764230001</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>36.77193545851248</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>62.83560861897008</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>387.3939335851824</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>842.4466348842743</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L9" t="n">
-        <v>1127.78621754389</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M9" t="n">
-        <v>1127.78621754389</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N9" t="n">
-        <v>1127.78621754389</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O9" t="n">
-        <v>1127.78621754389</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P9" t="n">
-        <v>1127.78621754389</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1582.838918842982</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1700.011696937321</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1636.556259385704</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1506.377615716306</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1330.041068716274</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1130.923550778274</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>945.6007965114677</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>790.7333607503476</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>664.2475815295684</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>125.4318846838372</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C10" t="n">
-        <v>125.4318846838372</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D10" t="n">
-        <v>125.4318846838372</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E10" t="n">
-        <v>125.4318846838372</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F10" t="n">
-        <v>125.4318846838372</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G10" t="n">
-        <v>125.4318846838372</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
-        <v>125.4318846838372</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>36.77193545851248</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>36.77193545851248</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>36.77193545851248</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>454.9818172264735</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>910.0345185255654</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1352.29332168321</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1771.962570908991</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1838.596772925624</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1838.596772925624</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1817.178951630996</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>1657.937582928992</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T10" t="n">
-        <v>1412.058136507448</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U10" t="n">
-        <v>1133.625135760553</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V10" t="n">
-        <v>846.6696276309833</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W10" t="n">
-        <v>574.6432232172749</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X10" t="n">
-        <v>329.2514685506874</v>
+        <v>1160.715522056492</v>
       </c>
       <c r="Y10" t="n">
-        <v>125.4318846838372</v>
+        <v>1132.45937714051</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2522.958394689264</v>
+        <v>2523.375184062125</v>
       </c>
       <c r="C11" t="n">
-        <v>2084.815921872688</v>
+        <v>2085.232711245548</v>
       </c>
       <c r="D11" t="n">
-        <v>1648.906137047132</v>
+        <v>1649.322926419993</v>
       </c>
       <c r="E11" t="n">
-        <v>1215.131392205427</v>
+        <v>1215.548181578288</v>
       </c>
       <c r="F11" t="n">
-        <v>787.2639626146351</v>
+        <v>787.6807519874956</v>
       </c>
       <c r="G11" t="n">
-        <v>385.866131237899</v>
+        <v>386.282920610759</v>
       </c>
       <c r="H11" t="n">
-        <v>96.73597668111523</v>
+        <v>97.15276605397517</v>
       </c>
       <c r="I11" t="n">
-        <v>96.73597668111523</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="J11" t="n">
-        <v>531.9906641340331</v>
+        <v>403.2461837293682</v>
       </c>
       <c r="K11" t="n">
-        <v>1366.340956092211</v>
+        <v>1237.596475687546</v>
       </c>
       <c r="L11" t="n">
-        <v>2312.656441940408</v>
+        <v>2312.656441940405</v>
       </c>
       <c r="M11" t="n">
-        <v>2312.656441940408</v>
+        <v>2312.656441940405</v>
       </c>
       <c r="N11" t="n">
-        <v>2312.656441940408</v>
+        <v>2312.656441940405</v>
       </c>
       <c r="O11" t="n">
-        <v>3292.836108510714</v>
+        <v>3292.836108510712</v>
       </c>
       <c r="P11" t="n">
-        <v>4121.14598334411</v>
+        <v>4121.145983344108</v>
       </c>
       <c r="Q11" t="n">
-        <v>4667.644769302705</v>
+        <v>4667.644769302702</v>
       </c>
       <c r="R11" t="n">
-        <v>4836.798834055761</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="S11" t="n">
-        <v>4753.146960239598</v>
+        <v>4764.64297345017</v>
       </c>
       <c r="T11" t="n">
-        <v>4753.146960239598</v>
+        <v>4544.575746323208</v>
       </c>
       <c r="U11" t="n">
-        <v>4493.924657556615</v>
+        <v>4544.575746323208</v>
       </c>
       <c r="V11" t="n">
-        <v>4131.307707490441</v>
+        <v>4181.958796257035</v>
       </c>
       <c r="W11" t="n">
-        <v>3726.452252901475</v>
+        <v>3777.103341668068</v>
       </c>
       <c r="X11" t="n">
-        <v>3357.544088874519</v>
+        <v>3357.960878247379</v>
       </c>
       <c r="Y11" t="n">
-        <v>2949.257965174172</v>
+        <v>2949.674754547033</v>
       </c>
     </row>
     <row r="12">
@@ -5100,40 +5100,40 @@
         <v>496.4512605090503</v>
       </c>
       <c r="D12" t="n">
-        <v>401.3609716556036</v>
+        <v>401.3609716556035</v>
       </c>
       <c r="E12" t="n">
-        <v>307.2405569825573</v>
+        <v>307.2405569825572</v>
       </c>
       <c r="F12" t="n">
-        <v>223.8567185987189</v>
+        <v>223.8567185987188</v>
       </c>
       <c r="G12" t="n">
-        <v>138.4716288649028</v>
+        <v>138.4716288649027</v>
       </c>
       <c r="H12" t="n">
-        <v>96.73597668111523</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I12" t="n">
         <v>122.7996498415728</v>
       </c>
       <c r="J12" t="n">
-        <v>447.3579748077852</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="K12" t="n">
-        <v>447.3579748077852</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="L12" t="n">
-        <v>447.3579748077852</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="M12" t="n">
-        <v>447.3579748077852</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="N12" t="n">
-        <v>447.3579748077852</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="O12" t="n">
-        <v>447.3579748077852</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="P12" t="n">
         <v>1102.064021433509</v>
@@ -5173,31 +5173,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1175.794137292997</v>
+        <v>947.2320137580465</v>
       </c>
       <c r="C13" t="n">
-        <v>1003.232425776221</v>
+        <v>774.6703022412714</v>
       </c>
       <c r="D13" t="n">
-        <v>837.3544329777442</v>
+        <v>608.7923094427941</v>
       </c>
       <c r="E13" t="n">
-        <v>667.5964292284815</v>
+        <v>439.0343056935313</v>
       </c>
       <c r="F13" t="n">
-        <v>490.8893751902377</v>
+        <v>262.3272516552875</v>
       </c>
       <c r="G13" t="n">
-        <v>325.2981002160654</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="H13" t="n">
-        <v>185.3959259064399</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I13" t="n">
-        <v>96.73597668111523</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="J13" t="n">
-        <v>183.3156618458051</v>
+        <v>183.315661845805</v>
       </c>
       <c r="K13" t="n">
         <v>458.0741164169406</v>
@@ -5221,28 +5221,28 @@
         <v>2713.395586583915</v>
       </c>
       <c r="R13" t="n">
-        <v>2691.977765289287</v>
+        <v>2713.395586583915</v>
       </c>
       <c r="S13" t="n">
-        <v>2532.736396587283</v>
+        <v>2554.154217881911</v>
       </c>
       <c r="T13" t="n">
-        <v>2532.736396587283</v>
+        <v>2308.274771460367</v>
       </c>
       <c r="U13" t="n">
-        <v>2399.406093907741</v>
+        <v>2029.841770713472</v>
       </c>
       <c r="V13" t="n">
-        <v>2112.450585778171</v>
+        <v>1742.886262583902</v>
       </c>
       <c r="W13" t="n">
-        <v>1840.424181364463</v>
+        <v>1470.859858170194</v>
       </c>
       <c r="X13" t="n">
-        <v>1595.032426697876</v>
+        <v>1225.468103503606</v>
       </c>
       <c r="Y13" t="n">
-        <v>1367.612756011984</v>
+        <v>998.0484328177145</v>
       </c>
     </row>
     <row r="14">
@@ -5252,28 +5252,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2522.958394689264</v>
+        <v>2252.656868168567</v>
       </c>
       <c r="C14" t="n">
-        <v>2084.815921872688</v>
+        <v>2085.232711245548</v>
       </c>
       <c r="D14" t="n">
-        <v>1648.906137047132</v>
+        <v>1649.322926419992</v>
       </c>
       <c r="E14" t="n">
-        <v>1215.131392205427</v>
+        <v>1215.548181578287</v>
       </c>
       <c r="F14" t="n">
-        <v>787.263962614635</v>
+        <v>787.680751987495</v>
       </c>
       <c r="G14" t="n">
-        <v>385.8661312378989</v>
+        <v>386.2829206107589</v>
       </c>
       <c r="H14" t="n">
-        <v>96.7359766811152</v>
+        <v>97.15276605397517</v>
       </c>
       <c r="I14" t="n">
-        <v>96.7359766811152</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="J14" t="n">
         <v>531.9906641340331</v>
@@ -5288,40 +5288,40 @@
         <v>2441.40092234507</v>
       </c>
       <c r="N14" t="n">
-        <v>3292.836108510714</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="O14" t="n">
-        <v>3292.836108510714</v>
+        <v>3421.580588915377</v>
       </c>
       <c r="P14" t="n">
-        <v>4121.145983344109</v>
+        <v>4249.890463748773</v>
       </c>
       <c r="Q14" t="n">
-        <v>4667.644769302704</v>
+        <v>4796.389249707368</v>
       </c>
       <c r="R14" t="n">
-        <v>4836.79883405576</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="S14" t="n">
-        <v>4753.146960239597</v>
+        <v>4753.146960239596</v>
       </c>
       <c r="T14" t="n">
-        <v>4533.079733112636</v>
+        <v>4533.079733112634</v>
       </c>
       <c r="U14" t="n">
-        <v>4273.857430429653</v>
+        <v>4273.857430429651</v>
       </c>
       <c r="V14" t="n">
-        <v>3911.240480363479</v>
+        <v>3911.240480363477</v>
       </c>
       <c r="W14" t="n">
-        <v>3506.385025774513</v>
+        <v>3506.385025774511</v>
       </c>
       <c r="X14" t="n">
-        <v>3087.242562353823</v>
+        <v>3087.242562353822</v>
       </c>
       <c r="Y14" t="n">
-        <v>2949.257965174172</v>
+        <v>2678.956438653475</v>
       </c>
     </row>
     <row r="15">
@@ -5349,28 +5349,28 @@
         <v>138.4716288649027</v>
       </c>
       <c r="H15" t="n">
-        <v>96.7359766811152</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I15" t="n">
         <v>122.7996498415728</v>
       </c>
       <c r="J15" t="n">
-        <v>447.3579748077852</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="K15" t="n">
-        <v>447.3579748077852</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="L15" t="n">
-        <v>447.3579748077852</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="M15" t="n">
-        <v>447.3579748077852</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="N15" t="n">
-        <v>447.3579748077852</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="O15" t="n">
-        <v>447.3579748077852</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="P15" t="n">
         <v>1102.064021433509</v>
@@ -5410,31 +5410,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>784.8119928040992</v>
+        <v>965.4711828007306</v>
       </c>
       <c r="C16" t="n">
-        <v>612.2502812873241</v>
+        <v>792.9094712839556</v>
       </c>
       <c r="D16" t="n">
-        <v>446.3722884888468</v>
+        <v>627.0314784854784</v>
       </c>
       <c r="E16" t="n">
-        <v>276.6142847395841</v>
+        <v>457.2734747362156</v>
       </c>
       <c r="F16" t="n">
-        <v>276.6142847395841</v>
+        <v>280.5664206979718</v>
       </c>
       <c r="G16" t="n">
-        <v>185.3959259064399</v>
+        <v>114.9751457237994</v>
       </c>
       <c r="H16" t="n">
-        <v>185.3959259064399</v>
+        <v>114.9751457237994</v>
       </c>
       <c r="I16" t="n">
-        <v>96.7359766811152</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="J16" t="n">
-        <v>183.3156618458051</v>
+        <v>183.315661845805</v>
       </c>
       <c r="K16" t="n">
         <v>458.0741164169406</v>
@@ -5458,28 +5458,28 @@
         <v>2713.395586583915</v>
       </c>
       <c r="R16" t="n">
-        <v>2691.977765289287</v>
+        <v>2713.395586583915</v>
       </c>
       <c r="S16" t="n">
-        <v>2532.736396587283</v>
+        <v>2713.395586583915</v>
       </c>
       <c r="T16" t="n">
-        <v>2286.856950165738</v>
+        <v>2467.51614016237</v>
       </c>
       <c r="U16" t="n">
-        <v>2008.423949418844</v>
+        <v>2189.083139415475</v>
       </c>
       <c r="V16" t="n">
-        <v>1721.468441289274</v>
+        <v>1902.127631285906</v>
       </c>
       <c r="W16" t="n">
-        <v>1449.442036875566</v>
+        <v>1630.101226872197</v>
       </c>
       <c r="X16" t="n">
-        <v>1204.050282208978</v>
+        <v>1384.709472205609</v>
       </c>
       <c r="Y16" t="n">
-        <v>976.6306115230864</v>
+        <v>1157.289801519718</v>
       </c>
     </row>
     <row r="17">
@@ -5489,28 +5489,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2522.958394689265</v>
+        <v>2523.375184062124</v>
       </c>
       <c r="C17" t="n">
-        <v>2084.815921872688</v>
+        <v>2085.232711245547</v>
       </c>
       <c r="D17" t="n">
-        <v>1648.906137047133</v>
+        <v>1649.322926419992</v>
       </c>
       <c r="E17" t="n">
-        <v>1215.131392205428</v>
+        <v>1215.548181578287</v>
       </c>
       <c r="F17" t="n">
-        <v>787.2639626146356</v>
+        <v>787.6807519874951</v>
       </c>
       <c r="G17" t="n">
-        <v>385.8661312378995</v>
+        <v>386.2829206107589</v>
       </c>
       <c r="H17" t="n">
-        <v>96.7359766811152</v>
+        <v>97.15276605397517</v>
       </c>
       <c r="I17" t="n">
-        <v>96.7359766811152</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="J17" t="n">
         <v>531.9906641340331</v>
@@ -5525,40 +5525,40 @@
         <v>2441.40092234507</v>
       </c>
       <c r="N17" t="n">
-        <v>2481.810506693464</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="O17" t="n">
-        <v>3461.99017326377</v>
+        <v>3421.580588915377</v>
       </c>
       <c r="P17" t="n">
-        <v>4290.300048097166</v>
+        <v>4249.890463748773</v>
       </c>
       <c r="Q17" t="n">
-        <v>4836.79883405576</v>
+        <v>4796.389249707368</v>
       </c>
       <c r="R17" t="n">
-        <v>4836.79883405576</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="S17" t="n">
-        <v>4836.79883405576</v>
+        <v>4753.146960239596</v>
       </c>
       <c r="T17" t="n">
-        <v>4803.381259633332</v>
+        <v>4533.079733112634</v>
       </c>
       <c r="U17" t="n">
-        <v>4544.158956950349</v>
+        <v>4273.857430429651</v>
       </c>
       <c r="V17" t="n">
-        <v>4181.542006884175</v>
+        <v>3911.240480363477</v>
       </c>
       <c r="W17" t="n">
-        <v>3776.686552295208</v>
+        <v>3506.385025774511</v>
       </c>
       <c r="X17" t="n">
-        <v>3357.544088874519</v>
+        <v>3087.242562353822</v>
       </c>
       <c r="Y17" t="n">
-        <v>2949.257965174173</v>
+        <v>2678.956438653475</v>
       </c>
     </row>
     <row r="18">
@@ -5586,28 +5586,28 @@
         <v>138.4716288649027</v>
       </c>
       <c r="H18" t="n">
-        <v>96.7359766811152</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I18" t="n">
         <v>122.7996498415728</v>
       </c>
       <c r="J18" t="n">
-        <v>447.3579748077852</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="K18" t="n">
-        <v>447.3579748077852</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="L18" t="n">
-        <v>447.3579748077852</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="M18" t="n">
-        <v>447.3579748077852</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="N18" t="n">
-        <v>447.3579748077852</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="O18" t="n">
-        <v>447.3579748077852</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="P18" t="n">
         <v>1102.064021433509</v>
@@ -5647,31 +5647,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1175.794137292997</v>
+        <v>947.2320137580467</v>
       </c>
       <c r="C19" t="n">
-        <v>1003.232425776222</v>
+        <v>774.6703022412717</v>
       </c>
       <c r="D19" t="n">
-        <v>837.3544329777444</v>
+        <v>608.7923094427941</v>
       </c>
       <c r="E19" t="n">
-        <v>667.5964292284816</v>
+        <v>439.0343056935313</v>
       </c>
       <c r="F19" t="n">
-        <v>490.8893751902378</v>
+        <v>262.3272516552875</v>
       </c>
       <c r="G19" t="n">
-        <v>325.2981002160654</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="H19" t="n">
-        <v>185.39592590644</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I19" t="n">
-        <v>96.7359766811152</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="J19" t="n">
-        <v>183.3156618458051</v>
+        <v>183.315661845805</v>
       </c>
       <c r="K19" t="n">
         <v>458.0741164169406</v>
@@ -5695,28 +5695,28 @@
         <v>2713.395586583915</v>
       </c>
       <c r="R19" t="n">
-        <v>2691.977765289287</v>
+        <v>2713.395586583915</v>
       </c>
       <c r="S19" t="n">
-        <v>2532.736396587283</v>
+        <v>2695.15641754123</v>
       </c>
       <c r="T19" t="n">
-        <v>2532.736396587283</v>
+        <v>2449.276971119686</v>
       </c>
       <c r="U19" t="n">
-        <v>2399.406093907741</v>
+        <v>2170.843970372791</v>
       </c>
       <c r="V19" t="n">
-        <v>2112.450585778172</v>
+        <v>1883.888462243221</v>
       </c>
       <c r="W19" t="n">
-        <v>1840.424181364463</v>
+        <v>1611.862057829513</v>
       </c>
       <c r="X19" t="n">
-        <v>1595.032426697876</v>
+        <v>1366.470303162926</v>
       </c>
       <c r="Y19" t="n">
-        <v>1367.612756011984</v>
+        <v>1139.050632477034</v>
       </c>
     </row>
     <row r="20">
@@ -5726,7 +5726,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2252.656868168569</v>
+        <v>2523.375184062125</v>
       </c>
       <c r="C20" t="n">
         <v>2085.232711245548</v>
@@ -5738,16 +5738,16 @@
         <v>1215.548181578287</v>
       </c>
       <c r="F20" t="n">
-        <v>787.6807519874951</v>
+        <v>787.680751987495</v>
       </c>
       <c r="G20" t="n">
         <v>386.2829206107589</v>
       </c>
       <c r="H20" t="n">
-        <v>97.1527660539752</v>
+        <v>97.15276605397517</v>
       </c>
       <c r="I20" t="n">
-        <v>96.7359766811152</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="J20" t="n">
         <v>531.9906641340331</v>
@@ -5774,28 +5774,28 @@
         <v>4796.389249707368</v>
       </c>
       <c r="R20" t="n">
-        <v>4836.79883405576</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="S20" t="n">
-        <v>4753.146960239597</v>
+        <v>4753.146960239596</v>
       </c>
       <c r="T20" t="n">
-        <v>4533.079733112636</v>
+        <v>4533.079733112634</v>
       </c>
       <c r="U20" t="n">
-        <v>4273.857430429653</v>
+        <v>4273.857430429651</v>
       </c>
       <c r="V20" t="n">
-        <v>3911.240480363479</v>
+        <v>3911.240480363478</v>
       </c>
       <c r="W20" t="n">
-        <v>3506.385025774513</v>
+        <v>3777.103341668068</v>
       </c>
       <c r="X20" t="n">
-        <v>3087.242562353823</v>
+        <v>3357.960878247379</v>
       </c>
       <c r="Y20" t="n">
-        <v>2678.956438653477</v>
+        <v>2949.674754547033</v>
       </c>
     </row>
     <row r="21">
@@ -5823,13 +5823,13 @@
         <v>138.4716288649027</v>
       </c>
       <c r="H21" t="n">
-        <v>96.7359766811152</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I21" t="n">
         <v>122.7996498415728</v>
       </c>
       <c r="J21" t="n">
-        <v>447.3579748077852</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="K21" t="n">
         <v>1102.064021433509</v>
@@ -5884,31 +5884,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>947.2320137580465</v>
+        <v>1052.109260520272</v>
       </c>
       <c r="C22" t="n">
-        <v>774.6703022412714</v>
+        <v>879.547549003497</v>
       </c>
       <c r="D22" t="n">
-        <v>608.7923094427941</v>
+        <v>713.6695562050197</v>
       </c>
       <c r="E22" t="n">
-        <v>439.0343056935313</v>
+        <v>543.911552455757</v>
       </c>
       <c r="F22" t="n">
-        <v>262.3272516552876</v>
+        <v>367.2044984175133</v>
       </c>
       <c r="G22" t="n">
-        <v>96.7359766811152</v>
+        <v>201.6132234433409</v>
       </c>
       <c r="H22" t="n">
-        <v>96.7359766811152</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I22" t="n">
-        <v>96.7359766811152</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="J22" t="n">
-        <v>183.3156618458051</v>
+        <v>183.315661845805</v>
       </c>
       <c r="K22" t="n">
         <v>458.0741164169406</v>
@@ -5935,25 +5935,25 @@
         <v>2713.395586583915</v>
       </c>
       <c r="S22" t="n">
-        <v>2695.15641754123</v>
+        <v>2554.154217881911</v>
       </c>
       <c r="T22" t="n">
-        <v>2449.276971119686</v>
+        <v>2554.154217881911</v>
       </c>
       <c r="U22" t="n">
-        <v>2170.843970372791</v>
+        <v>2275.721217135016</v>
       </c>
       <c r="V22" t="n">
-        <v>1883.888462243222</v>
+        <v>1988.765709005447</v>
       </c>
       <c r="W22" t="n">
-        <v>1611.862057829513</v>
+        <v>1716.739304591738</v>
       </c>
       <c r="X22" t="n">
-        <v>1366.470303162926</v>
+        <v>1471.347549925151</v>
       </c>
       <c r="Y22" t="n">
-        <v>1139.050632477034</v>
+        <v>1243.927879239259</v>
       </c>
     </row>
     <row r="23">
@@ -5975,13 +5975,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>952.7568773477108</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C25" t="n">
-        <v>780.1951658309357</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D25" t="n">
-        <v>614.3171730324584</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E25" t="n">
-        <v>444.5591692831957</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F25" t="n">
-        <v>267.852115244952</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G25" t="n">
-        <v>102.2608402707796</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H25" t="n">
         <v>102.2608402707796</v>
@@ -6172,25 +6172,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2700.681281130895</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T25" t="n">
-        <v>2454.80183470935</v>
+        <v>2473.041003752035</v>
       </c>
       <c r="U25" t="n">
-        <v>2176.368833962455</v>
+        <v>2194.60800300514</v>
       </c>
       <c r="V25" t="n">
-        <v>1889.413325832886</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W25" t="n">
-        <v>1617.386921419177</v>
+        <v>1635.626090461862</v>
       </c>
       <c r="X25" t="n">
-        <v>1371.99516675259</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y25" t="n">
-        <v>1144.575496066698</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="26">
@@ -6212,13 +6212,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F26" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G26" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H26" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I26" t="n">
         <v>102.2608402707796</v>
@@ -6230,10 +6230,10 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L26" t="n">
-        <v>2446.925785934734</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="M26" t="n">
-        <v>2446.925785934734</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N26" t="n">
         <v>2588.899621423627</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1041.416826573035</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C28" t="n">
-        <v>868.8551150562604</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D28" t="n">
-        <v>702.9771222577831</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E28" t="n">
-        <v>533.2191185085204</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F28" t="n">
-        <v>356.5120644702768</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G28" t="n">
-        <v>190.9207894961043</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H28" t="n">
         <v>190.9207894961043</v>
@@ -6385,7 +6385,7 @@
         <v>188.8405254354695</v>
       </c>
       <c r="K28" t="n">
-        <v>463.5989800066051</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L28" t="n">
         <v>881.8088617745661</v>
@@ -6409,25 +6409,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2718.920450173579</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T28" t="n">
-        <v>2473.041003752035</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U28" t="n">
-        <v>2194.60800300514</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V28" t="n">
-        <v>1978.07327505821</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="W28" t="n">
-        <v>1706.046870644502</v>
+        <v>1763.340229889428</v>
       </c>
       <c r="X28" t="n">
-        <v>1460.655115977914</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y28" t="n">
-        <v>1233.235445292023</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="29">
@@ -6449,13 +6449,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F29" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I29" t="n">
         <v>102.2608402707796</v>
@@ -6470,7 +6470,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M29" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N29" t="n">
         <v>2588.899621423627</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1039.174348374284</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C31" t="n">
-        <v>866.6126368575087</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D31" t="n">
-        <v>700.7346440590313</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E31" t="n">
-        <v>530.9766403097685</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F31" t="n">
-        <v>354.2695862715246</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G31" t="n">
-        <v>188.6783112973523</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H31" t="n">
         <v>102.2608402707796</v>
@@ -6658,13 +6658,13 @@
         <v>1748.411126173567</v>
       </c>
       <c r="W31" t="n">
-        <v>1476.384721759859</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X31" t="n">
-        <v>1230.992967093271</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y31" t="n">
-        <v>1230.992967093271</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="32">
@@ -6686,40 +6686,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K32" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L32" t="n">
-        <v>2446.925785934734</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M32" t="n">
-        <v>2446.925785934734</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N32" t="n">
-        <v>2588.899621423627</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O32" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P32" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q32" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R32" t="n">
         <v>5113.04201353898</v>
@@ -6832,10 +6832,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>952.7568773477108</v>
+        <v>952.7568773477109</v>
       </c>
       <c r="C34" t="n">
-        <v>780.1951658309357</v>
+        <v>780.1951658309358</v>
       </c>
       <c r="D34" t="n">
         <v>614.3171730324584</v>
@@ -6883,22 +6883,22 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>2559.679081471576</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T34" t="n">
-        <v>2313.799635050031</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U34" t="n">
-        <v>2035.366634303137</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.411126173567</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W34" t="n">
-        <v>1476.384721759859</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X34" t="n">
-        <v>1230.992967093271</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y34" t="n">
         <v>1144.575496066698</v>
@@ -6923,13 +6923,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004233</v>
+        <v>391.8077842004236</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436399</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
@@ -6944,13 +6944,13 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M35" t="n">
-        <v>3603.973621145286</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N35" t="n">
-        <v>3603.973621145286</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O35" t="n">
-        <v>3603.973621145286</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P35" t="n">
         <v>4397.38916282733</v>
@@ -7078,7 +7078,7 @@
         <v>614.3171730324585</v>
       </c>
       <c r="E37" t="n">
-        <v>444.5591692831958</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F37" t="n">
         <v>267.852115244952</v>
@@ -7154,7 +7154,7 @@
         <v>2090.757574835212</v>
       </c>
       <c r="D38" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009656</v>
       </c>
       <c r="E38" t="n">
         <v>1221.073045167952</v>
@@ -7172,43 +7172,43 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J38" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K38" t="n">
-        <v>102.2608402707796</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L38" t="n">
-        <v>1021.773653488281</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M38" t="n">
-        <v>2178.821488698832</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N38" t="n">
-        <v>3304.552472135279</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O38" t="n">
-        <v>4284.732138705585</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P38" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R38" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S38" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T38" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U38" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V38" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W38" t="n">
         <v>3782.628205257733</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>952.756877347711</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C40" t="n">
-        <v>780.1951658309358</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D40" t="n">
-        <v>614.3171730324585</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E40" t="n">
-        <v>444.5591692831957</v>
+        <v>462.7983383258797</v>
       </c>
       <c r="F40" t="n">
-        <v>267.852115244952</v>
+        <v>286.0912842876359</v>
       </c>
       <c r="G40" t="n">
-        <v>102.2608402707796</v>
+        <v>120.5000093134636</v>
       </c>
       <c r="H40" t="n">
         <v>102.2608402707796</v>
@@ -7357,25 +7357,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>2559.679081471576</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T40" t="n">
-        <v>2454.80183470935</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U40" t="n">
-        <v>2176.368833962455</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V40" t="n">
-        <v>1889.413325832886</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W40" t="n">
-        <v>1617.386921419177</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X40" t="n">
-        <v>1371.99516675259</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y40" t="n">
-        <v>1144.575496066698</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="41">
@@ -7397,7 +7397,7 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F41" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G41" t="n">
         <v>391.8077842004234</v>
@@ -7418,37 +7418,37 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M41" t="n">
-        <v>2588.899621423628</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N41" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O41" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P41" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q41" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R41" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S41" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T41" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U41" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V41" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W41" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X41" t="n">
         <v>3363.485741837043</v>
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>952.7568773477109</v>
+        <v>952.756877347711</v>
       </c>
       <c r="C43" t="n">
-        <v>780.1951658309358</v>
+        <v>780.1951658309359</v>
       </c>
       <c r="D43" t="n">
-        <v>614.3171730324585</v>
+        <v>614.3171730324586</v>
       </c>
       <c r="E43" t="n">
         <v>444.5591692831958</v>
       </c>
       <c r="F43" t="n">
-        <v>267.852115244952</v>
+        <v>267.8521152449521</v>
       </c>
       <c r="G43" t="n">
         <v>102.2608402707796</v>
@@ -7594,16 +7594,16 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S43" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T43" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U43" t="n">
-        <v>2176.368833962455</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V43" t="n">
-        <v>1889.413325832886</v>
+        <v>1748.411126173567</v>
       </c>
       <c r="W43" t="n">
         <v>1617.386921419177</v>
@@ -7622,22 +7622,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C44" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D44" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009656</v>
       </c>
       <c r="E44" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167951</v>
       </c>
       <c r="F44" t="n">
-        <v>793.2056155771604</v>
+        <v>793.2056155771593</v>
       </c>
       <c r="G44" t="n">
-        <v>391.8077842004243</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H44" t="n">
         <v>102.6776296436396</v>
@@ -7658,40 +7658,40 @@
         <v>2446.925785934734</v>
       </c>
       <c r="N44" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O44" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P44" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q44" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R44" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S44" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T44" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U44" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V44" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W44" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X44" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y44" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="45">
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>952.756877347711</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C46" t="n">
-        <v>780.1951658309359</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D46" t="n">
-        <v>614.3171730324586</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E46" t="n">
-        <v>444.5591692831958</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F46" t="n">
-        <v>267.8521152449521</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G46" t="n">
-        <v>102.2608402707797</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H46" t="n">
         <v>102.2608402707796</v>
@@ -7804,13 +7804,13 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J46" t="n">
-        <v>188.8405254354693</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K46" t="n">
-        <v>463.5989800066051</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L46" t="n">
-        <v>881.8088617745663</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M46" t="n">
         <v>1341.292728955479</v>
@@ -7831,25 +7831,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S46" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T46" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U46" t="n">
-        <v>2176.368833962455</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="V46" t="n">
-        <v>1889.413325832885</v>
+        <v>2026.844126920462</v>
       </c>
       <c r="W46" t="n">
-        <v>1617.386921419177</v>
+        <v>1754.817722506753</v>
       </c>
       <c r="X46" t="n">
-        <v>1371.99516675259</v>
+        <v>1509.425967840166</v>
       </c>
       <c r="Y46" t="n">
-        <v>1144.575496066698</v>
+        <v>1284.477670376324</v>
       </c>
     </row>
   </sheetData>
@@ -7976,10 +7976,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>407.152590549595</v>
+        <v>613.8410568773351</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -7991,16 +7991,16 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>424.2958575201043</v>
+        <v>40.34758805804108</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>613.8410568773352</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8058,10 +8058,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>613.8410568773349</v>
       </c>
       <c r="L3" t="n">
-        <v>358.9284720888814</v>
+        <v>47.47818213854748</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8076,7 +8076,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8137,25 +8137,25 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K4" t="n">
-        <v>150.1941962971706</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>308.3808099909375</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8213,13 +8213,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -8228,13 +8228,13 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8295,10 +8295,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8371,28 +8371,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821534</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8450,10 +8450,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>459.649193231406</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -8465,13 +8465,13 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>270.2148169866455</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>459.649193231406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>459.6491932314061</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697543</v>
@@ -8532,10 +8532,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>459.6491932314059</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>288.2218006662783</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8547,10 +8547,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q9" t="n">
-        <v>459.6491932314059</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8608,16 +8608,16 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>459.649193231406</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
         <v>446.7260637956006</v>
@@ -8626,10 +8626,10 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P10" t="n">
-        <v>67.30727476427523</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8687,13 +8687,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>439.6511994473918</v>
+        <v>309.6062697457102</v>
       </c>
       <c r="K11" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>955.8742281294922</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -8784,7 +8784,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -8936,10 +8936,10 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>860.0355415814579</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P14" t="n">
         <v>836.6766412458549</v>
@@ -8948,7 +8948,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
-        <v>170.8626916697543</v>
+        <v>40.81776196807186</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9021,7 +9021,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -9173,7 +9173,7 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>40.81776196807414</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
@@ -9185,7 +9185,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>40.81776196807186</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9243,7 +9243,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9258,7 +9258,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>661.3192390158825</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -9422,7 +9422,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R20" t="n">
-        <v>40.81776196807368</v>
+        <v>40.81776196807186</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9480,7 +9480,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9878,13 +9878,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="N26" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
@@ -10118,10 +10118,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N29" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
@@ -10346,31 +10346,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10592,16 +10592,16 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
-        <v>801.4298400828725</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q35" t="n">
         <v>552.0189757157522</v>
@@ -10820,19 +10820,19 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
-        <v>928.8008214318197</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
@@ -10841,10 +10841,10 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11066,10 +11066,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831379</v>
@@ -11306,7 +11306,7 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>143.4079146352456</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831379</v>
@@ -23276,7 +23276,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,13 +23306,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>11.38105307846855</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23321,7 +23321,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>49.73195639979599</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>139.5921776627261</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23431,10 +23431,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,16 +23461,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>143.651671086679</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23495,7 +23495,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>268.0111327346213</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23513,7 +23513,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23561,7 +23561,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>267.5985112554883</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23662,16 +23662,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>73.62918697961737</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>69.71657238081418</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23729,7 +23729,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>268.0111327346212</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -23750,7 +23750,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23780,10 +23780,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>184.7831561774875</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -23905,10 +23905,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,16 +23935,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="T19" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>143.6516710866793</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23969,7 +23969,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>268.0111327346199</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -24029,7 +24029,7 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>268.0111327346218</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -24142,7 +24142,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>34.67467827192574</v>
       </c>
       <c r="I22" t="n">
         <v>87.77334973307141</v>
@@ -24175,10 +24175,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>139.5921776627259</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>120.4463752142717</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24379,7 +24379,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>87.77334973307141</v>
@@ -24412,7 +24412,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>139.5921776627253</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24616,7 +24616,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24649,7 +24649,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24658,13 +24658,13 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>69.7165723808137</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>81.78272691405223</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24853,7 +24853,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>52.94985625022223</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
         <v>87.77334973307141</v>
@@ -24898,13 +24898,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>139.5921776627255</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25123,7 +25123,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>139.5921776627253</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>139.5921776627254</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25360,7 +25360,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>139.5921776627254</v>
+        <v>139.5921776627259</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25564,7 +25564,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>120.4463752142721</v>
       </c>
       <c r="I40" t="n">
         <v>87.77334973307141</v>
@@ -25597,10 +25597,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
-        <v>139.5921776627259</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25834,7 +25834,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>139.5921776627253</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25846,7 +25846,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>139.592177662726</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26038,7 +26038,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>87.77334973307141</v>
@@ -26071,13 +26071,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>139.5921776627254</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26089,7 +26089,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>2.446659489829308</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>715387.9556435847</v>
+        <v>721219.5147345971</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>715387.9556435847</v>
+        <v>722870.8568781852</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>716475.638512705</v>
+        <v>722870.8568781852</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>695865.1734216183</v>
+        <v>695865.1734216181</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>695865.1734216182</v>
+        <v>695865.1734216181</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>695865.1734216182</v>
+        <v>695865.1734216181</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>695865.1734216182</v>
+        <v>695865.1734216179</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>725231.4789176882</v>
+        <v>725231.4789176881</v>
       </c>
     </row>
     <row r="10">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>725231.4789176882</v>
+        <v>725231.4789176881</v>
       </c>
     </row>
     <row r="15">
@@ -26314,25 +26314,25 @@
         <v>241266.2939506838</v>
       </c>
       <c r="C2" t="n">
-        <v>241266.2939506839</v>
+        <v>241266.2939506838</v>
       </c>
       <c r="D2" t="n">
         <v>241266.2939506838</v>
       </c>
       <c r="E2" t="n">
-        <v>227485.7540872545</v>
+        <v>227485.7540872543</v>
       </c>
       <c r="F2" t="n">
-        <v>227485.7540872545</v>
+        <v>227485.7540872544</v>
       </c>
       <c r="G2" t="n">
-        <v>227485.7540872544</v>
+        <v>227485.7540872543</v>
       </c>
       <c r="H2" t="n">
-        <v>227485.7540872544</v>
+        <v>227485.7540872543</v>
       </c>
       <c r="I2" t="n">
-        <v>237085.9128618085</v>
+        <v>237085.9128618086</v>
       </c>
       <c r="J2" t="n">
         <v>237085.9128618086</v>
@@ -26341,7 +26341,7 @@
         <v>237085.9128618085</v>
       </c>
       <c r="L2" t="n">
-        <v>237085.9128618086</v>
+        <v>237085.9128618085</v>
       </c>
       <c r="M2" t="n">
         <v>237085.9128618085</v>
@@ -26353,7 +26353,7 @@
         <v>237085.9128618085</v>
       </c>
       <c r="P2" t="n">
-        <v>237085.9128618086</v>
+        <v>237085.9128618085</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>142191.3006597099</v>
+        <v>205712.2565039032</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>17340.54437390642</v>
       </c>
       <c r="D3" t="n">
-        <v>10981.80667200164</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>223799.2937520285</v>
+        <v>161735.0752101144</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,19 +26384,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>18364.7156328394</v>
+        <v>18364.71563283952</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449902</v>
+        <v>160607.8294856134</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>13814.00856784496</v>
       </c>
       <c r="L3" t="n">
-        <v>8947.611088509051</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>186790.9866104686</v>
+        <v>134989.9446130034</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,25 +26415,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187564.5330558132</v>
+        <v>150016.3828485736</v>
       </c>
       <c r="C4" t="n">
-        <v>187564.5330558133</v>
+        <v>139383.7472389045</v>
       </c>
       <c r="D4" t="n">
-        <v>180561.1778449376</v>
+        <v>139383.7472389045</v>
       </c>
       <c r="E4" t="n">
-        <v>39457.78817960746</v>
+        <v>39457.78817960744</v>
       </c>
       <c r="F4" t="n">
+        <v>39457.78817960743</v>
+      </c>
+      <c r="G4" t="n">
+        <v>39457.78817960743</v>
+      </c>
+      <c r="H4" t="n">
         <v>39457.78817960744</v>
-      </c>
-      <c r="G4" t="n">
-        <v>39457.78817960744</v>
-      </c>
-      <c r="H4" t="n">
-        <v>39457.78817960745</v>
       </c>
       <c r="I4" t="n">
         <v>41122.95192991271</v>
@@ -26448,16 +26448,16 @@
         <v>41122.95192991271</v>
       </c>
       <c r="M4" t="n">
-        <v>41122.95192991272</v>
+        <v>41122.95192991276</v>
       </c>
       <c r="N4" t="n">
-        <v>41122.95192991268</v>
+        <v>41122.95192991276</v>
       </c>
       <c r="O4" t="n">
-        <v>41122.95192991272</v>
+        <v>41122.95192991271</v>
       </c>
       <c r="P4" t="n">
-        <v>41122.95192991272</v>
+        <v>41122.95192991271</v>
       </c>
     </row>
     <row r="5">
@@ -26467,25 +26467,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>59424.78813722234</v>
+        <v>70949.13625814197</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="D5" t="n">
-        <v>61574.27094846948</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>73519.34227764756</v>
+        <v>73519.34227764752</v>
       </c>
       <c r="F5" t="n">
-        <v>73519.34227764755</v>
+        <v>73519.34227764752</v>
       </c>
       <c r="G5" t="n">
-        <v>73519.34227764755</v>
+        <v>73519.34227764752</v>
       </c>
       <c r="H5" t="n">
-        <v>73519.34227764755</v>
+        <v>73519.34227764752</v>
       </c>
       <c r="I5" t="n">
         <v>77718.23860579252</v>
@@ -26503,13 +26503,13 @@
         <v>77718.2386057925</v>
       </c>
       <c r="N5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="O5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="P5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-147914.3279020617</v>
+        <v>-185411.4816599349</v>
       </c>
       <c r="C6" t="n">
-        <v>-5723.027242351753</v>
+        <v>10329.47777611522</v>
       </c>
       <c r="D6" t="n">
-        <v>-11850.9615147249</v>
+        <v>27670.02215002161</v>
       </c>
       <c r="E6" t="n">
-        <v>-109290.6701220291</v>
+        <v>-47303.01013491183</v>
       </c>
       <c r="F6" t="n">
-        <v>114508.6236299995</v>
+        <v>114432.0650752026</v>
       </c>
       <c r="G6" t="n">
-        <v>114508.6236299994</v>
+        <v>114432.0650752026</v>
       </c>
       <c r="H6" t="n">
-        <v>114508.6236299994</v>
+        <v>114432.0650752025</v>
       </c>
       <c r="I6" t="n">
-        <v>99880.00669326389</v>
+        <v>99856.78235388114</v>
       </c>
       <c r="J6" t="n">
-        <v>7230.25698111314</v>
+        <v>-42386.33149889277</v>
       </c>
       <c r="K6" t="n">
-        <v>118244.7223261033</v>
+        <v>104407.4894188757</v>
       </c>
       <c r="L6" t="n">
-        <v>109297.1112375943</v>
+        <v>118221.4979867207</v>
       </c>
       <c r="M6" t="n">
-        <v>-68546.26428436532</v>
+        <v>-16768.44662628275</v>
       </c>
       <c r="N6" t="n">
-        <v>118244.7223261033</v>
+        <v>118221.4979867206</v>
       </c>
       <c r="O6" t="n">
-        <v>118244.7223261032</v>
+        <v>118221.4979867206</v>
       </c>
       <c r="P6" t="n">
-        <v>118244.7223261033</v>
+        <v>118221.4979867207</v>
       </c>
     </row>
   </sheetData>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773351</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="D4" t="n">
-        <v>459.649193231406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
         <v>1209.19970851394</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773351</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>53.67414973052189</v>
       </c>
       <c r="D4" t="n">
-        <v>35.35333571130167</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>749.5505152825343</v>
+        <v>541.6845019060827</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27030,19 +27030,19 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>69.06079487080524</v>
+        <v>69.06079487080569</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773351</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>53.67414973052189</v>
       </c>
       <c r="L4" t="n">
-        <v>35.35333571130167</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>749.5505152825341</v>
+        <v>541.6845019060825</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773351</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>53.67414973052189</v>
       </c>
       <c r="L4" t="n">
-        <v>35.35333571130167</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>749.5505152825343</v>
+        <v>541.6845019060827</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,25 +27379,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>399.9667529740393</v>
+        <v>253.050146288259</v>
       </c>
       <c r="D2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,10 +27430,10 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>358.9907805655117</v>
@@ -27445,7 +27445,7 @@
         <v>400</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="3">
@@ -27543,16 +27543,16 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>30.2191152963255</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
         <v>87.77334973307141</v>
@@ -27582,22 +27582,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>97.24138718456288</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27616,22 +27616,22 @@
         <v>400</v>
       </c>
       <c r="C5" t="n">
-        <v>387.9834051227915</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>7.254829457195569</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>5.14113987318342</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27676,13 +27676,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>400</v>
+        <v>367.6387245651728</v>
       </c>
       <c r="X5" t="n">
         <v>400</v>
       </c>
       <c r="Y5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27783,16 +27783,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>22.23190701435007</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27828,19 +27828,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>31.8087862020904</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>376.5286747344037</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27868,10 +27868,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27910,7 +27910,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>215.484505078932</v>
       </c>
       <c r="W8" t="n">
         <v>400</v>
@@ -28011,22 +28011,22 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28077,7 +28077,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>23.36408595085109</v>
+        <v>197.171890512211</v>
       </c>
     </row>
     <row r="11">
@@ -29983,7 +29983,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -30220,7 +30220,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -34696,10 +34696,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>407.152590549595</v>
+        <v>613.8410568773351</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -34711,16 +34711,16 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>424.2958575201043</v>
+        <v>40.34758805804108</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>613.8410568773352</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34772,16 +34772,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J3" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>613.8410568773349</v>
       </c>
       <c r="L3" t="n">
-        <v>358.9284720888814</v>
+        <v>47.47818213854748</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34796,7 +34796,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K4" t="n">
-        <v>150.1941962971706</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>308.3808099909375</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821539</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,13 +34933,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -34948,13 +34948,13 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35015,10 +35015,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35033,7 +35033,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821534</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,10 +35170,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>459.649193231406</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -35185,16 +35185,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>270.2148169866455</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>459.649193231406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>459.6491932314061</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697542</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35246,16 +35246,16 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>459.6491932314059</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>288.2218006662783</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35267,10 +35267,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q9" t="n">
-        <v>459.6491932314059</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,16 +35328,16 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>459.649193231406</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
         <v>446.7260637956006</v>
@@ -35346,10 +35346,10 @@
         <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>67.30727476427523</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,13 +35407,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>439.6511994473918</v>
+        <v>309.6062697457102</v>
       </c>
       <c r="K11" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>955.8742281294922</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -35504,7 +35504,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -35656,19 +35656,19 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>860.0355415814579</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P14" t="n">
-        <v>836.6766412458546</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>170.862691669754</v>
+        <v>40.81776196807186</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35741,7 +35741,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -35893,19 +35893,19 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>40.81776196807414</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P17" t="n">
-        <v>836.6766412458546</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q17" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>40.81776196807186</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,7 +35963,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -35978,7 +35978,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>661.3192390158825</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -36142,7 +36142,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R20" t="n">
-        <v>40.81776196807368</v>
+        <v>40.81776196807186</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,7 +36200,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -36598,13 +36598,13 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L26" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="N26" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
@@ -36756,7 +36756,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L28" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M28" t="n">
         <v>464.1251183645586</v>
@@ -36838,10 +36838,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N29" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831377</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P32" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37312,16 +37312,16 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
-        <v>801.4298400828725</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q35" t="n">
         <v>552.0189757157523</v>
@@ -37540,19 +37540,19 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L38" t="n">
-        <v>928.8008214318197</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
@@ -37561,10 +37561,10 @@
         <v>836.6766412458546</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J39" t="n">
         <v>327.836691885063</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K40" t="n">
         <v>277.5337924960966</v>
@@ -37786,10 +37786,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831377</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J42" t="n">
         <v>327.836691885063</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
@@ -38026,7 +38026,7 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>143.4079146352456</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831377</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J45" t="n">
         <v>327.836691885063</v>
@@ -38172,25 +38172,25 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908053</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K46" t="n">
-        <v>277.5337924960968</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N46" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P46" t="n">
-        <v>351.0170646165066</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q46" t="n">
         <v>169.8916917821539</v>
